--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_176.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_176.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,610 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06221364842054497</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09642857142857142</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(38.31, 41.1)]</t>
+          <t>[['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(54.072, 59.053)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:15.060000', '0:00:20.560000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1675824175824176</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'Eb', 'Bb/3', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3311965811965812</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'F#:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(18.932, 25.282)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.045102, 12.823786)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:08.580000'), ('0:00:02.660000', '0:00:10.620000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:08.900000', '0:00:18.920000'), ('0:00:10.260000', '0:00:21.600000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2150537634408602</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'A:7', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(69.52047, 74.942329)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(7.16, 15.08)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:25.480000', '0:00:32.760000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:03', '0:00:05.280000'), ('0:00:00.700000', '0:00:03.780000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_54</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'D#:maj', 'D#:7'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1373873873873874</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb:7'], ['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['C:maj', 'G:9', 'C:maj/G', 'D:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(67.38, 77.76), (65.28, 71.0)]</t>
+          <t>[['Eb', 'Bb:9', 'Eb', 'F:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(7.92, 15.14), (36.82, 47.63)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:59.860000', '0:01:05.740000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:15.830000', '0:00:17.340000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_288</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2094017094017094</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['E', 'B', 'E', 'A'], ['F#', 'B', 'A/9', 'E/5']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(97.98, 122.64)]</t>
+          <t>[['B', 'F#', 'B', 'E'], ['C#', 'F#', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(146.52, 179.42)]</t>
+          <t>[('0:00:38.714036', '0:00:44.240385'), ('0:00:59.356575', '0:01:04.894535')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:45.875873', '0:00:53.747437'), ('0:00:56.394512', '0:01:06.994421')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.24, 21.44)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(45.72, 54.38)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:52.240000', '0:01:54.880000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(14.44, 41.8)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(27.76, 40.18)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4402173913043478</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.8465, 18.745911), (7.646772, 12.917702)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(11.337709, 19.847823), (0.344657, 11.337709)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:06.415079', '0:00:16.608639')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1238738738738739</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(144.085784, 149.240614)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(75.52, 79.7)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1776960784313726</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.24, 9.28)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(22.5, 27.52), (21.94, 25.36), (243.44, 246.98), (11.82, 16.4)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (8.2, 12.66), (38.18, 51.98), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09519230769230769</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(43.926916, 52.959478)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.376439, 18.860975)]</t>
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:24.520000', '0:00:54.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_8</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_40</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2213947190250508</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min7', 'G:min7', 'C:min7']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:maj6', 'E:maj6', 'F#:min7']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.73, 4.29)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.289002, 32.734897)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(87.66, 96.72)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.24, 19.08)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1766917293233083</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.357029, 26.14043)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(1.014823, 13.657911)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:02:41.980000', '0:02:46.620000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2256944444444444</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'C#:min', 'F#:min', 'B', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'B:min', 'E:min', 'A', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(49.708684, 53.876666)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(22.862248, 29.410731)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
